--- a/VocalAdversary_accuracy.xlsx
+++ b/VocalAdversary_accuracy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loes5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA434B-9BF5-420D-A464-CA39C27A22F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3007E194-9BEC-447E-B429-E9185E450FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{361B41FF-9642-4D16-9586-C12E61D09073}"/>
+    <workbookView xWindow="1065" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{361B41FF-9642-4D16-9586-C12E61D09073}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Voice modification</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>whisper</t>
   </si>
   <si>
@@ -207,6 +201,12 @@
   </si>
   <si>
     <t>Xvector-LS960h</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Voice adaptation</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,47 +590,47 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -646,10 +646,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -763,10 +763,10 @@
         <v>31.42</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -880,10 +880,10 @@
         <v>88.57</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -997,10 +997,10 @@
         <v>37.96</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -1114,10 +1114,10 @@
         <v>41.63</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1231,10 +1231,10 @@
         <v>48.98</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -1348,10 +1348,10 @@
         <v>51.02</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -1465,10 +1465,10 @@
         <v>32.24</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -1583,10 +1583,10 @@
         <v>83.67</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>72.92</v>
@@ -1702,10 +1702,10 @@
         <v>74.69</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>73.47</v>
@@ -1821,10 +1821,10 @@
         <v>97.14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>64.58</v>
@@ -1940,10 +1940,10 @@
         <v>52.65</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -2059,10 +2059,10 @@
         <v>51.84</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -2178,10 +2178,10 @@
         <v>61.04</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -2297,10 +2297,10 @@
         <v>67.760000000000005</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -2416,10 +2416,10 @@
         <v>91.43</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -2535,10 +2535,10 @@
         <v>46.53</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -2654,10 +2654,10 @@
         <v>82.04</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>97.92</v>
@@ -2773,10 +2773,10 @@
         <v>55.91</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -2892,10 +2892,10 @@
         <v>46.94</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -3011,10 +3011,10 @@
         <v>95.1</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>100</v>
